--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1257975.662914019</v>
+        <v>1289192.31994921</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178669</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7944741.581593077</v>
+        <v>8422066.203894408</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.28458271287657</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>394.2638527219351</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -674,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>39.10000693786907</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>127.8163798995526</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>401.6975797206585</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>34.56482986051404</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>21.07915711638599</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>92.89149721884418</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>20.93513099186654</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>240.5095967917948</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>13.14147362117947</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>109.6793419192572</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>173.5030712582276</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1846,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>363.9585094926619</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>369.2659961340943</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2008,10 +2010,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>123.4663257560838</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>162.7829502711892</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>248.9925180568699</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>401.5578040935733</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2476,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>78.89506023858894</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2761,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>245.6045788297987</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>11.22535429200823</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2858,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>88.37144488016051</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>28.01490760909618</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3038,13 +3040,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>279.808646299486</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3187,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3562652764835</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3272,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3436,10 +3438,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X37" t="n">
-        <v>58.11593919665221</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>360.176182737529</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3554,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3566,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>79.35843381149056</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>278.7805800587156</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3800,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>1.78553419660066</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>161.6218091235291</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3983,19 +3985,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>109.6793419192572</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4144,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>27.68271050469022</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>121.6740993227961</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1706.454125852191</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C2" t="n">
-        <v>1296.329535165461</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D2" t="n">
-        <v>891.8656052585216</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>477.5253897754182</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>460.5353817695098</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>58.5872416475372</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>771.1786414597752</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.195756848048</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N2" t="n">
-        <v>2221.212872236321</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>2221.212872236321</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2537.020515430471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2187.182960766952</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2187.182960766952</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1786.539562935905</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1786.539562935905</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L3" t="n">
-        <v>58.5872416475372</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M3" t="n">
-        <v>783.60435703581</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>839.4134544636129</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
-        <v>1543.370545009507</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.3390591777896</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="C4" t="n">
-        <v>335.8441026748916</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="D4" t="n">
-        <v>335.8441026748916</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="E4" t="n">
-        <v>174.9332875432111</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9332875432111</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>174.9332875432111</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1305.187990814512</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1305.187990814512</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1026.118326323386</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="X4" t="n">
-        <v>787.7744641830693</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.038765571834</v>
+        <v>474.9689777942758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1120.189153016962</v>
+        <v>1681.136832804107</v>
       </c>
       <c r="C5" t="n">
-        <v>710.064562330232</v>
+        <v>1675.052646157781</v>
       </c>
       <c r="D5" t="n">
-        <v>580.9571078862394</v>
+        <v>1270.588716250841</v>
       </c>
       <c r="E5" t="n">
-        <v>166.6168924031362</v>
+        <v>856.2485007677381</v>
       </c>
       <c r="F5" t="n">
-        <v>149.6268843972278</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1309.338142568815</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>2034.355257957088</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N5" t="n">
-        <v>2759.372373345361</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.87452311782</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2314.81403137733</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2314.81403137733</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1931.053730512499</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1530.410332681451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1530.410332681451</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2014.147639841514</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C7" t="n">
-        <v>1843.054267403231</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D7" t="n">
-        <v>1683.559622726141</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E7" t="n">
-        <v>1683.559622726141</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F7" t="n">
-        <v>1683.559622726141</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>1516.309231651684</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>1516.309231651684</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2844.08936405226</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>2809.175394496185</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>2809.175394496185</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>2526.377247042309</v>
+        <v>1225.050447007214</v>
       </c>
       <c r="V7" t="n">
-        <v>2252.491501981831</v>
+        <v>951.1647019467362</v>
       </c>
       <c r="W7" t="n">
-        <v>2252.491501981831</v>
+        <v>672.0950374556105</v>
       </c>
       <c r="X7" t="n">
-        <v>2014.147639841514</v>
+        <v>433.7511753152939</v>
       </c>
       <c r="Y7" t="n">
-        <v>2014.147639841514</v>
+        <v>209.0154767040586</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.6618133950778</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>989.577626748752</v>
+        <v>1734.854929646784</v>
       </c>
       <c r="D8" t="n">
-        <v>585.1136968418125</v>
+        <v>1641.025134476234</v>
       </c>
       <c r="E8" t="n">
-        <v>574.8138853991132</v>
+        <v>1226.684918993131</v>
       </c>
       <c r="F8" t="n">
-        <v>553.6672884376319</v>
+        <v>805.6545069468186</v>
       </c>
       <c r="G8" t="n">
-        <v>144.9390043304641</v>
+        <v>396.9262228396508</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>269.4065639606398</v>
+        <v>307.2915647909673</v>
       </c>
       <c r="K8" t="n">
-        <v>807.5660650696793</v>
+        <v>845.4510659000068</v>
       </c>
       <c r="L8" t="n">
-        <v>1520.157464881917</v>
+        <v>1558.042465712245</v>
       </c>
       <c r="M8" t="n">
-        <v>2245.17458027019</v>
+        <v>2334.361056703999</v>
       </c>
       <c r="N8" t="n">
-        <v>2245.17458027019</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>2888.805436687295</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>2888.805436687295</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2794.081007170961</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2537.020515430471</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>2187.182960766952</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1803.422659902121</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>1402.779262071073</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.842589019163</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>251.4000992101705</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>707.2063554754692</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>707.2063554754692</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>707.2063554754692</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.223470863742</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.231972814054</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.8148045070764</v>
+        <v>909.3980746782881</v>
       </c>
       <c r="C10" t="n">
-        <v>506.8148045070764</v>
+        <v>738.3047022400046</v>
       </c>
       <c r="D10" t="n">
-        <v>506.8148045070764</v>
+        <v>578.8100575629146</v>
       </c>
       <c r="E10" t="n">
-        <v>506.8148045070764</v>
+        <v>417.8992424312341</v>
       </c>
       <c r="F10" t="n">
-        <v>342.1836786176676</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>1372.47763542984</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>1372.47763542984</v>
       </c>
       <c r="W10" t="n">
-        <v>506.8148045070764</v>
+        <v>1372.47763542984</v>
       </c>
       <c r="X10" t="n">
-        <v>506.8148045070764</v>
+        <v>1134.133773289524</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.8148045070764</v>
+        <v>909.3980746782881</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>983.9629763010623</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>573.8383856143324</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>169.3744557073929</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5872416475372</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>312.7727131152915</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1025.36411292753</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1750.381228315802</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2079.044377662417</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2079.044377662417</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2579.524527713341</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2195.764226848509</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>1795.120829017462</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1394.184155965552</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M12" t="n">
-        <v>676.1022315638701</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.921091948674</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8277195103904</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>817.3330748333003</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>656.4222597016197</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>491.791133812211</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>324.5407427377544</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X13" t="n">
-        <v>1560.356496953953</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y13" t="n">
-        <v>1335.620798342718</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1777.944456830383</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1367.819866143654</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.56423861009</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>778.224023126987</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>778.224023126987</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G14" t="n">
-        <v>369.4957390198192</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>123.1055953709714</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2579.524527713341</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2579.524527713341</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2178.881129882293</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1777.944456830383</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.621472424083</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.602869382415</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5549,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>735.0499203580262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1578.027001052593</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.027001052593</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.5451751656769</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C19" t="n">
-        <v>377.4518027273934</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9571580503035</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5707,16 +5709,16 @@
         <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X19" t="n">
-        <v>548.5451751656769</v>
+        <v>1101.500584717281</v>
       </c>
       <c r="Y19" t="n">
-        <v>548.5451751656769</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U22" t="n">
-        <v>859.9217748466467</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V22" t="n">
-        <v>586.0360297861687</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W22" t="n">
-        <v>586.0360297861687</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3292.280632587379</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C25" t="n">
-        <v>3292.280632587379</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H25" t="n">
         <v>3132.785987910289</v>
@@ -6169,28 +6171,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>4337.363427183242</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>4257.671447144263</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>3983.785702083785</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>3704.716037592659</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X25" t="n">
-        <v>3704.716037592659</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y25" t="n">
-        <v>3479.980338981424</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E26" t="n">
         <v>1320.262653899312</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6409,22 +6411,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.571728532997</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1006.486295371584</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W28" t="n">
-        <v>727.4166308804582</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X28" t="n">
-        <v>489.0727687401416</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="Y28" t="n">
         <v>264.3370701289063</v>
@@ -6488,22 +6490,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
         <v>2959.412569640574</v>
@@ -6543,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>916.2303367455215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>916.2303367455215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1789.888428857139</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.7454763291312</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>554.7454763291312</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>554.7454763291312</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>554.7454763291312</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
         <v>526.4475898552967</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>554.7454763291312</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>554.7454763291312</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4228.544372554647</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U34" t="n">
-        <v>4228.544372554647</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V34" t="n">
-        <v>3954.658627494169</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W34" t="n">
-        <v>3954.658627494169</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.314765353853</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y34" t="n">
-        <v>3491.579066742617</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6968,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.231502096085</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C37" t="n">
-        <v>895.138129657802</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>1537.369875986873</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X37" t="n">
-        <v>1478.666907101365</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y37" t="n">
-        <v>1253.93120849013</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2502.881125286859</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
         <v>2139.066799289355</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2913.102304951348</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4222.119838211426</v>
+        <v>606.6076240083174</v>
       </c>
       <c r="C40" t="n">
-        <v>4051.026465773143</v>
+        <v>606.6076240083174</v>
       </c>
       <c r="D40" t="n">
-        <v>3891.531821096053</v>
+        <v>606.6076240083174</v>
       </c>
       <c r="E40" t="n">
-        <v>3730.621005964372</v>
+        <v>606.6076240083174</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X40" t="n">
-        <v>4634.555243216706</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y40" t="n">
-        <v>4409.819544605471</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1964.976476713811</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1683.379931199957</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.916001293017</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E41" t="n">
-        <v>864.5757858099139</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>864.5757858099139</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>455.8475017027461</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>58.5872416475372</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>783.60435703581</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.856875555747</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2314.81403137733</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>1964.976476713811</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>1964.976476713811</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>1964.976476713811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.976476713811</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>656.9323297486841</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C43" t="n">
-        <v>485.8389573104006</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D43" t="n">
-        <v>326.3443126333106</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E43" t="n">
-        <v>326.3443126333106</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>326.3443126333106</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>324.5407427377544</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>174.9332875432111</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1348.437399245089</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U43" t="n">
-        <v>1348.437399245089</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="V43" t="n">
-        <v>1348.437399245089</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="W43" t="n">
-        <v>1069.367734753964</v>
+        <v>908.6540907256278</v>
       </c>
       <c r="X43" t="n">
-        <v>1069.367734753964</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="Y43" t="n">
-        <v>844.6320361427285</v>
+        <v>445.574529974076</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>983.9629763010623</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>573.8383856143324</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>169.3744557073929</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>850.932214224331</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1575.949329612604</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2079.044377662417</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2079.044377662417</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2579.524527713341</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W44" t="n">
-        <v>2195.764226848509</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>1795.120829017462</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>1394.184155965552</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>719.6754135668255</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>719.6754135668255</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N45" t="n">
-        <v>1193.526080325524</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O45" t="n">
-        <v>1193.526080325524</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
-        <v>1755.231972814054</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>578.0484077377126</v>
+        <v>1032.970092797216</v>
       </c>
       <c r="C46" t="n">
-        <v>406.9550352994291</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D46" t="n">
-        <v>247.4603906223392</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E46" t="n">
-        <v>86.54957549065864</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F46" t="n">
-        <v>86.54957549065864</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>1228.827674883309</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W46" t="n">
-        <v>1228.827674883309</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X46" t="n">
-        <v>990.4838127429923</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y46" t="n">
-        <v>765.748114131757</v>
+        <v>1220.66979919126</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P2" t="n">
-        <v>484.5465383770935</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>362.035413379455</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>109.5662190783993</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8216,19 +8218,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O5" t="n">
-        <v>223.9302436479392</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8237,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8307,16 +8309,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>429.3564034215989</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>67.39425105392507</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>286.2724017505833</v>
+        <v>296.8325199430034</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,16 +8461,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>174.1409094511108</v>
       </c>
       <c r="O9" t="n">
-        <v>384.022693091224</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,19 +8692,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>424.8952698946136</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8711,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>681.3167988054204</v>
+        <v>379.7158738969637</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>660.231241700964</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>704.403637616307</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9954,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10191,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>427.0037993558996</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10671,13 +10673,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>745.8914891781321</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>710.3390771403937</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11145,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11300,16 +11302,16 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N44" t="n">
-        <v>601.0891069685514</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11318,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,19 +11384,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>178.5117997957786</v>
       </c>
       <c r="N45" t="n">
-        <v>531.8304305237482</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>300.5174714090151</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>226.9162193496424</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>42.06483528720065</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>10.65670172208877</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.83538122427987</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>59.70539135393369</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0.7564490426709227</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>30.97764792246718</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.083197172522773</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>201.0751057407481</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>25.54230878007453</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>224.7350692269052</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>308.5558614412303</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>134.9699070214185</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24968,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>76.79698635658144</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25372,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X37" t="n">
-        <v>177.8444843222612</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>45.84716204233354</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.62638081902409</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>127.242764721147</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7923529671114</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>118.348356855808</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>300.5174714090151</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.8951766590218</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26080,16 +26082,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>100.8142423023269</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>783200.2877071467</v>
+        <v>778229.5954849988</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>783200.2877071467</v>
+        <v>778229.5954849988</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>783200.2877071467</v>
+        <v>791305.5800625158</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546237.5692387717</v>
+        <v>710373.6727514735</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>546237.569238772</v>
+        <v>710373.6727514734</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710373.6727514733</v>
+        <v>710373.6727514734</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710373.6727514736</v>
+        <v>710373.6727514734</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710373.6727514737</v>
+        <v>710373.6727514736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710373.6727514734</v>
+        <v>710373.6727514735</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710373.6727514735</v>
+        <v>710373.6727514736</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546237.569238772</v>
+        <v>710373.6727514736</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546237.5692387719</v>
+        <v>710373.6727514735</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778969</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778966</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.743277897</v>
       </c>
       <c r="E2" t="n">
-        <v>267285.0205987445</v>
+        <v>347578.401042113</v>
       </c>
       <c r="F2" t="n">
-        <v>267285.0205987447</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="G2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.401042113</v>
       </c>
       <c r="H2" t="n">
+        <v>347578.4010421128</v>
+      </c>
+      <c r="I2" t="n">
+        <v>347578.401042113</v>
+      </c>
+      <c r="J2" t="n">
         <v>347578.4010421129</v>
-      </c>
-      <c r="I2" t="n">
-        <v>347578.4010421129</v>
-      </c>
-      <c r="J2" t="n">
-        <v>347578.4010421127</v>
       </c>
       <c r="K2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="L2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.401042113</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.401042113</v>
       </c>
       <c r="N2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="O2" t="n">
-        <v>267285.0205987447</v>
+        <v>347578.4010421129</v>
       </c>
       <c r="P2" t="n">
-        <v>267285.0205987446</v>
+        <v>347578.4010421127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152083.7444815841</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="C4" t="n">
-        <v>152083.7444815841</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>152083.7444815841</v>
+        <v>99895.51658519972</v>
       </c>
       <c r="E4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090265</v>
@@ -26439,25 +26441,25 @@
         <v>44919.86535090265</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="L4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="O4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="P4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84744.0571389106</v>
+        <v>-33495.79043760905</v>
       </c>
       <c r="C6" t="n">
-        <v>160680.0951441842</v>
+        <v>141459.7194555051</v>
       </c>
       <c r="D6" t="n">
-        <v>160680.0951441844</v>
+        <v>20193.6864274285</v>
       </c>
       <c r="E6" t="n">
-        <v>188284.1184118848</v>
+        <v>204824.3712654028</v>
       </c>
       <c r="F6" t="n">
-        <v>188284.118411885</v>
+        <v>231793.3254463368</v>
       </c>
       <c r="G6" t="n">
-        <v>113058.1410142227</v>
+        <v>231793.325446337</v>
       </c>
       <c r="H6" t="n">
+        <v>231793.3254463368</v>
+      </c>
+      <c r="I6" t="n">
+        <v>231793.325446337</v>
+      </c>
+      <c r="J6" t="n">
+        <v>95198.52464044197</v>
+      </c>
+      <c r="K6" t="n">
         <v>231793.3254463369</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>91794.01458158426</v>
+      </c>
+      <c r="M6" t="n">
+        <v>209284.0606722896</v>
+      </c>
+      <c r="N6" t="n">
         <v>231793.3254463369</v>
       </c>
-      <c r="J6" t="n">
-        <v>40180.82227598397</v>
-      </c>
-      <c r="K6" t="n">
-        <v>231793.3254463368</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>231793.3254463369</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>231793.3254463367</v>
-      </c>
-      <c r="N6" t="n">
-        <v>231793.3254463368</v>
-      </c>
-      <c r="O6" t="n">
-        <v>188284.118411885</v>
-      </c>
-      <c r="P6" t="n">
-        <v>188284.1184118849</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>326.834385154968</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11.7594920579275</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>130.2824317760316</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>248.2640602371185</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>272.6029107083174</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>15.1225282051908</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27792,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>149.9630205783748</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>258.8910088629511</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>307.5277933890259</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>395.8849769339828</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>39.46056918754232</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>263.1374942250349</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P2" t="n">
-        <v>390.8971750962094</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>56.37282568464934</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O5" t="n">
-        <v>130.7404680221561</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>371.6049244215989</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>212.9488104172754</v>
+        <v>223.5089286096955</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,16 +35181,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>120.9475160573608</v>
       </c>
       <c r="O9" t="n">
-        <v>326.271214091224</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>331.9829791379943</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35431,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>623.7525150670029</v>
+        <v>322.1515901585462</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>602.479762700964</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8892755450505</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>688.3272054397147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>617.4267863837744</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N44" t="n">
-        <v>508.176816211932</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38038,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="N45" t="n">
-        <v>478.6370371299982</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1289192.31994921</v>
+        <v>1287879.67449363</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789205</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>394.2638527219351</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,7 +676,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>19.89965880896433</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>28.0149076090959</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>119.2777600808882</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>401.6975797206585</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>381.8047781162001</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>21.07915711638599</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>100.8330519902538</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1135,10 +1135,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>92.89149721884418</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>380.470929585188</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>240.5095967917948</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919151</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>65.87715375964795</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -1542,10 +1542,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1770,10 +1770,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -1782,10 +1782,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>187.3604422334851</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1903,13 +1903,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>369.2659961340943</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>173.5693474676043</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2004,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.341502183296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.7829502711892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>84.73179601342665</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>19.96653488889152</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>50.61039643672383</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>413.7369107533264</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>101.6409518870423</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>11.22535429200823</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>88.37144488016051</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>23.57155728634048</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>279.808646299486</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>42.43741174507654</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3325,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3426,19 +3426,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.43104772188501</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>79.35843381149056</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>31.26212499533212</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>380.4549498986232</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>368.1319780410717</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>203.6371796990063</v>
       </c>
       <c r="U43" t="n">
-        <v>161.6218091235291</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.3086823202902</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.6740993227961</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>876.4530309326553</v>
+        <v>100.351163121435</v>
       </c>
       <c r="C2" t="n">
-        <v>478.2067150519129</v>
+        <v>94.26697647510916</v>
       </c>
       <c r="D2" t="n">
-        <v>477.7831891853775</v>
+        <v>93.84345060857376</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>83.54363916587452</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>66.55363115996613</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>61.86575109320238</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4333,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1592.293889628578</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649055</v>
+        <v>911.5090158378343</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.674210597145</v>
+        <v>510.5723427859244</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>537.7254774811266</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.9689777942758</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C4" t="n">
-        <v>474.9689777942758</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D4" t="n">
-        <v>474.9689777942758</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E4" t="n">
-        <v>474.9689777942758</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W4" t="n">
-        <v>474.9689777942758</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="X4" t="n">
-        <v>474.9689777942758</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="Y4" t="n">
-        <v>474.9689777942758</v>
+        <v>981.4914807361952</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.136832804107</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>1675.052646157781</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D5" t="n">
-        <v>1270.588716250841</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>856.2485007677381</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
         <v>450.4933697367699</v>
@@ -4567,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4609,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.317608428192</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>81.91922121582792</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>2048.100145893876</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.0154767040586</v>
+        <v>971.6042912536486</v>
       </c>
       <c r="C7" t="n">
-        <v>209.0154767040586</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D7" t="n">
-        <v>209.0154767040586</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.050447007214</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1647019467362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>672.0950374556105</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>433.7511753152939</v>
+        <v>1384.039696258928</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.0154767040586</v>
+        <v>1159.303997647693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.93911629311</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.854929646784</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1641.025134476234</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>1226.684918993131</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>805.6545069468186</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>396.9262228396508</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>307.2915647909673</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>845.4510659000068</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1558.042465712245</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2334.361056703999</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>3087.542073342617</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>3731.172929759722</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.329627678873</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
         <v>4260.329627678873</v>
@@ -4843,13 +4843,13 @@
         <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840557</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009509</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957599</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8439382834442</v>
+        <v>1802.652898273553</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>909.3980746782881</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="C10" t="n">
-        <v>738.3047022400046</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="D10" t="n">
-        <v>578.8100575629146</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="E10" t="n">
-        <v>417.8992424312341</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="F10" t="n">
-        <v>253.2681165418253</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1372.47763542984</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.47763542984</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>1372.47763542984</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.133773289524</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="Y10" t="n">
-        <v>909.3980746782881</v>
+        <v>202.3637713630426</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5086,7 +5086,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.074801429505</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>601.6742641625859</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>535.131684607386</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H13" t="n">
         <v>209.5897435862967</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>601.6742641625859</v>
       </c>
     </row>
     <row r="14">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1246.997854238368</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>1246.997854238368</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>1246.997854238368</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>1008.653992098051</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>783.918293486816</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,19 +5542,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>4047.636833531609</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
         <v>3273.997480009557</v>
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.3736558270855</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="C19" t="n">
-        <v>578.280283388802</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>227.9320837343561</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.844446857597</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.500584717281</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.0733622211299</v>
+        <v>582.8821812028571</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.930282068041</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1008.590066584938</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>587.5596545386256</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>178.8313704314578</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>178.8313704314578</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5782,22 +5782,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>699.770875649097</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>540.2762309720069</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>379.3654158403264</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W22" t="n">
-        <v>3315.218102057671</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>870.8642480873805</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4011.405617385543</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C25" t="n">
-        <v>3840.31224494726</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D25" t="n">
-        <v>3680.81760027017</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E25" t="n">
-        <v>3519.906785138489</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F25" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1571.520981749126</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1331.972242725828</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1049.174095271952</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>775.2883502114738</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>496.2186857203482</v>
       </c>
       <c r="X25" t="n">
-        <v>4423.841022390823</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="Y25" t="n">
-        <v>4199.105323779588</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2134.851174492981</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1724.726583806251</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.262653899312</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4559.51725636241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4337.310772309269</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4080.250280568779</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3730.41272590526</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3346.652425040428</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2946.009027209381</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2545.072354157471</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6758118380055</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>264.3370701289063</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E31" t="n">
         <v>691.0787157447054</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>1129.643024912921</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>850.5733604217953</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2324.444211508952</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C32" t="n">
-        <v>1914.319620822223</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D32" t="n">
-        <v>1509.855690915283</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E32" t="n">
-        <v>1095.51547543218</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>3920.005762921231</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W32" t="n">
-        <v>3536.245462056399</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.602064225352</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y32" t="n">
-        <v>2734.665391173442</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1579.776521841699</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>1296.978374387823</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1023.092629327345</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>744.0229648362191</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>505.6791026959025</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>280.9434040846672</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>4332.330861486824</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.3736558270855</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="C37" t="n">
-        <v>578.280283388802</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="D37" t="n">
-        <v>418.7856387117121</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W37" t="n">
-        <v>1400.152922972682</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X37" t="n">
-        <v>1161.809060832365</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.0733622211299</v>
+        <v>358.1464825916217</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>606.6076240083174</v>
+        <v>694.626329284476</v>
       </c>
       <c r="C40" t="n">
-        <v>606.6076240083174</v>
+        <v>694.626329284476</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6076240083174</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E40" t="n">
-        <v>606.6076240083174</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
         <v>209.5897435862967</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.756849250995</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W40" t="n">
-        <v>1069.687184759869</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X40" t="n">
-        <v>831.3433226195527</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y40" t="n">
-        <v>606.6076240083174</v>
+        <v>882.3260356785204</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D41" t="n">
-        <v>1692.113136769081</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F41" t="n">
         <v>899.2322418529996</v>
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.8748235800315</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="C43" t="n">
-        <v>257.8748235800315</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D43" t="n">
-        <v>257.8748235800315</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1416.948473403386</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.723755216753</v>
+        <v>1134.15032594951</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.723755216753</v>
+        <v>860.2645808890319</v>
       </c>
       <c r="W43" t="n">
-        <v>908.6540907256278</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="X43" t="n">
-        <v>670.3102285853113</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="Y43" t="n">
-        <v>445.574529974076</v>
+        <v>581.1949163979062</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>4047.636833531609</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1032.970092797216</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C46" t="n">
-        <v>861.8767203589325</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D46" t="n">
-        <v>702.3820756818425</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E46" t="n">
-        <v>541.471260550162</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F46" t="n">
-        <v>376.8401346607533</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G46" t="n">
-        <v>209.5897435862967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W46" t="n">
-        <v>1343.572929820347</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.572929820347</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="Y46" t="n">
-        <v>1220.66979919126</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,10 +8060,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>362.035413379455</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>394.6973592394724</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>91.92897171537967</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8306,19 +8306,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.39425105392507</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>296.8325199430034</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>313.5427330088476</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8537,19 +8537,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>174.1409094511108</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629447</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8777,10 +8777,10 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>379.7158738969637</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,22 +9722,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>178.5117997957786</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>103.5052849542527</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>92.60972374585197</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23718,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>10.65670172208877</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>14.76987845930194</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.70539135393369</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7564490426709227</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>143.0182797416231</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>133.917454002165</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.28731256679784</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>224.7350692269052</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>308.5558614412303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>247.5753303235328</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>137.0114616263633</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25128,7 +25128,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>194.7158398879884</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>89.146839441827</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25365,16 +25365,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.62638081902409</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>191.2262166297908</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25797,13 +25797,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>33.51607193405866</v>
       </c>
       <c r="U43" t="n">
-        <v>118.348356855808</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>4.651741198623284</v>
       </c>
       <c r="Y46" t="n">
-        <v>100.8142423023269</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710373.6727514734</v>
+        <v>710373.6727514735</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710373.6727514734</v>
+        <v>710373.6727514735</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710373.6727514735</v>
+        <v>710373.6727514734</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710373.6727514736</v>
+        <v>710373.6727514734</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710373.6727514736</v>
+        <v>710373.6727514735</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710373.6727514735</v>
+        <v>710373.6727514733</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778967</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778967</v>
+        <v>390917.7432778965</v>
       </c>
       <c r="D2" t="n">
         <v>390917.743277897</v>
       </c>
       <c r="E2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421129</v>
       </c>
       <c r="F2" t="n">
+        <v>347578.4010421127</v>
+      </c>
+      <c r="G2" t="n">
         <v>347578.4010421128</v>
       </c>
-      <c r="G2" t="n">
-        <v>347578.401042113</v>
-      </c>
       <c r="H2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="I2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421126</v>
       </c>
       <c r="J2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="K2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="L2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="N2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="O2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="P2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.4010421126</v>
       </c>
     </row>
     <row r="3">
@@ -26423,40 +26423,40 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>99895.51658519972</v>
+        <v>99895.5165851997</v>
       </c>
       <c r="E4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="F4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="F4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="G4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
         <v>44919.86535090264</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33495.79043760905</v>
+        <v>-33495.79043760891</v>
       </c>
       <c r="C6" t="n">
-        <v>141459.7194555051</v>
+        <v>141459.7194555049</v>
       </c>
       <c r="D6" t="n">
-        <v>20193.6864274285</v>
+        <v>20193.68642742852</v>
       </c>
       <c r="E6" t="n">
-        <v>204824.3712654028</v>
+        <v>204643.7906727537</v>
       </c>
       <c r="F6" t="n">
-        <v>231793.3254463368</v>
+        <v>231612.7448536877</v>
       </c>
       <c r="G6" t="n">
-        <v>231793.325446337</v>
+        <v>231612.7448536877</v>
       </c>
       <c r="H6" t="n">
-        <v>231793.3254463368</v>
+        <v>231612.7448536876</v>
       </c>
       <c r="I6" t="n">
-        <v>231793.325446337</v>
+        <v>231612.7448536876</v>
       </c>
       <c r="J6" t="n">
-        <v>95198.52464044197</v>
+        <v>95017.9440477927</v>
       </c>
       <c r="K6" t="n">
-        <v>231793.3254463369</v>
+        <v>231612.7448536876</v>
       </c>
       <c r="L6" t="n">
-        <v>91794.01458158426</v>
+        <v>91613.43398893494</v>
       </c>
       <c r="M6" t="n">
-        <v>209284.0606722896</v>
+        <v>209103.4800796403</v>
       </c>
       <c r="N6" t="n">
-        <v>231793.3254463369</v>
+        <v>231612.7448536877</v>
       </c>
       <c r="O6" t="n">
-        <v>231793.3254463369</v>
+        <v>231612.7448536877</v>
       </c>
       <c r="P6" t="n">
-        <v>231793.3254463367</v>
+        <v>231612.7448536875</v>
       </c>
     </row>
   </sheetData>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7594920579275</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>287.8997535895949</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>248.2640602371185</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>116.6826634380253</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.1225282051908</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>14.83218573653693</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>258.8910088629511</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.1273715286596</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>307.5277933890259</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>16.4563767362028</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>39.46056918754232</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>170.5352159497219</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,10 +34780,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>306.2096305948396</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>40.55973291537967</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>223.5089286096955</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>223.5089286096956</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>120.9475160573608</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629447</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>322.1515901585462</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
